--- a/R/20190420_연습.xlsx
+++ b/R/20190420_연습.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tolkien/work/misc/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E91609-E8D9-574C-80A6-A543FBD5C443}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE51C42-BB27-F64D-8858-B3EDCE765C7B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="460" windowWidth="26300" windowHeight="14420" activeTab="1" xr2:uid="{AE66FE3F-8D75-F549-9ECB-BAE381A2E5E5}"/>
+    <workbookView xWindow="960" yWindow="460" windowWidth="26300" windowHeight="14420" activeTab="2" xr2:uid="{AE66FE3F-8D75-F549-9ECB-BAE381A2E5E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="모평균 비교.2" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="135">
   <si>
     <t>t_(15-1),0.025</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -247,6 +248,311 @@
   </si>
   <si>
     <t>Ka^2=(n-1)S^2/sigma^2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 독립표본 모평균 비교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 모집단의 분산이 다른 경우, (s_1^2 != s_2^2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 데이타 분석도구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검정통계량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(X_1` - X_2`)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1 F 검정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F-Test Two-Sample for Variances</t>
+  </si>
+  <si>
+    <t>T_0 =</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--------------</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ t(SS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자유도 SS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqrt((S_p^2)/n_1 + (S_p^2)/n_2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(n_1 - 1) S_1^2 + (n_2 - 1) S_2^2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Satterthwaite 자유도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(( S_1^2 / n_1 ) + (S_2^2 / n_2 ))^2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>where SS =</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-----------------------------------------</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>( S_1^2 / n_1 )^2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>( S_2^2 / n_2 )^2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_1 - 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_2 - 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 모집단의 분산이 같은 경우, (s_1^2 = s_2^2 = s^2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2 t 검정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ t(n_1 + n_2 - 2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_p sqrt(1/n_1 + 1/n_2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if S_p =</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--------------------------- (합동표본분산)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(n_1 - 1) + (n_2 - 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공분산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hypothesized Mean Difference</t>
+  </si>
+  <si>
+    <t>자유도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) one-tail</t>
+  </si>
+  <si>
+    <t>t Critical one-tail</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) two-tail</t>
+  </si>
+  <si>
+    <t>유의 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t Critical two-tail</t>
+  </si>
+  <si>
+    <t>2. 데이타 분석도구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불소농도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌍체비교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나의 실험단위에 두개의 처리를 실시 (Data가 Pair로 나옴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1 t검정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방목초기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정기간후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t-Test: Paired Two Sample for Means</t>
+  </si>
+  <si>
+    <t>D_i = X_i - Y_i (I = 1,2,…,n)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가설설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방목초기</t>
+  </si>
+  <si>
+    <t>일정기간후</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  귀무가설 H_0 : u_D = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_D == mean(D)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  대립가설 H_1 : u_D != 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  T = D` / (S_D sqt(n) )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pearson Correlation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   where D` = sum(D_i/n), S_D^2 = sum(D_i - D`)^2/(n-1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀무가설이 참일 때, T ~ t(n - 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t 검정통계량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단측검증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P-Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  귀무가설 H_0 : u_1 = u_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  대립가설 H_1 : u_1 &gt; u_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양측검증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  대립가설 H_1 : u_1 != u_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>따라서, 일정기간후 불소농도가 감소하였나 -&gt; 단측검증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단측검증 P-Value 0.000113은 작으므로 대립가설(불소농도 감소) 채택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player A</t>
+  </si>
+  <si>
+    <t>Player A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player B</t>
+  </si>
+  <si>
+    <t>Player B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>따라서, H_1 : s_1 != s_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t-Test: Two-Sample Assuming Unequal Variances</t>
+  </si>
+  <si>
+    <t>양측검증에 대한 유의확률(P-Value) 0.923 &gt; 0.05보다 크므로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀무가설(양쪽 점수에 대한 차이가 없다.) 받아들임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F Right Side</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F &gt; 4.026</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -254,6 +560,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -279,12 +588,32 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -293,9 +622,42 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1288,7 +1650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{790121E2-09F7-344D-9EED-FC693E69E739}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
@@ -1756,4 +2118,715 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{839AFD0C-AB14-444C-9F94-F520338696ED}">
+  <dimension ref="A1:M45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="19" thickBot="1">
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4">
+        <v>198</v>
+      </c>
+      <c r="I4">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="D5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5">
+        <v>119</v>
+      </c>
+      <c r="I5">
+        <v>159</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="D6" s="3"/>
+      <c r="H6">
+        <v>174</v>
+      </c>
+      <c r="I6">
+        <v>162</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" s="9">
+        <f>AVERAGE(H4:H13)</f>
+        <v>175.1</v>
+      </c>
+      <c r="L6" s="9">
+        <f>AVERAGE(I4:I13)</f>
+        <v>173.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="H7">
+        <v>235</v>
+      </c>
+      <c r="I7">
+        <v>178</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="9">
+        <f>_xlfn.VAR.S(H4:H13)</f>
+        <v>1831.4333333333359</v>
+      </c>
+      <c r="L7" s="9">
+        <f>_xlfn.VAR.S(I4:I13)</f>
+        <v>184.90000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8">
+        <v>134</v>
+      </c>
+      <c r="I8">
+        <v>188</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" s="9">
+        <f>COUNT(H4:H13)</f>
+        <v>10</v>
+      </c>
+      <c r="L8" s="9">
+        <f>COUNT(I4:I13)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9">
+        <v>192</v>
+      </c>
+      <c r="I9">
+        <v>169</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" s="9">
+        <f>K8-1</f>
+        <v>9</v>
+      </c>
+      <c r="L9" s="9">
+        <f>L8-1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="D10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10">
+        <v>124</v>
+      </c>
+      <c r="I10">
+        <v>173</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10" s="9">
+        <f>K7/L7</f>
+        <v>9.9049936902830478</v>
+      </c>
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" spans="1:13" ht="19" thickBot="1">
+      <c r="D11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11">
+        <v>241</v>
+      </c>
+      <c r="I11">
+        <v>183</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="K11" s="10">
+        <f>_xlfn.F.INV.RT(0.05/2,K9,L9)</f>
+        <v>4.0259941582829777</v>
+      </c>
+      <c r="L11" s="10"/>
+      <c r="M11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="D12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12">
+        <v>158</v>
+      </c>
+      <c r="I12">
+        <v>177</v>
+      </c>
+      <c r="M12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="D13" s="3"/>
+      <c r="H13">
+        <v>176</v>
+      </c>
+      <c r="I13">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="B14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="19" thickBot="1">
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" t="s">
+        <v>83</v>
+      </c>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="D17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K17" s="9">
+        <f>K6</f>
+        <v>175.1</v>
+      </c>
+      <c r="L17" s="9">
+        <f>L6</f>
+        <v>173.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="D18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K18" s="9">
+        <f>K7</f>
+        <v>1831.4333333333359</v>
+      </c>
+      <c r="L18" s="9">
+        <f>L7</f>
+        <v>184.90000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="C19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19" t="s">
+        <v>88</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="K19" s="9">
+        <f>K8</f>
+        <v>10</v>
+      </c>
+      <c r="L19" s="9">
+        <f>L8</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="D20" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K20" s="9">
+        <v>0</v>
+      </c>
+      <c r="L20" s="9"/>
+      <c r="M20">
+        <f>(K18/K19 + L18/L19)^2</f>
+        <v>40656.001111111225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="I21" t="s">
+        <v>90</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K21">
+        <f>ROUNDUP(M20/M21, 0)</f>
+        <v>11</v>
+      </c>
+      <c r="L21" s="9"/>
+      <c r="M21">
+        <f>(K18/K19)^2/(K19-1) + (L18/L19)^2/(L19-1)</f>
+        <v>3764.8178493827272</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="I22" t="s">
+        <v>57</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="K22">
+        <f>(K17-L17)/SQRT(K18/K19+L18/L19)</f>
+        <v>9.8593179164089884E-2</v>
+      </c>
+      <c r="L22" s="9"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="J23" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="K23">
+        <f>_xlfn.T.DIST.RT(K22, K21)</f>
+        <v>0.46161750063056384</v>
+      </c>
+      <c r="L23" s="9"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="J24" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K24">
+        <f>_xlfn.T.INV(1-0.05,K21)</f>
+        <v>1.795884818704043</v>
+      </c>
+      <c r="L24" s="9"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="I25" t="s">
+        <v>95</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K25">
+        <f>_xlfn.T.DIST.2T(K22,K21)</f>
+        <v>0.92323500126112767</v>
+      </c>
+      <c r="L25" s="9"/>
+      <c r="M25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="19" thickBot="1">
+      <c r="J26" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="K26" s="10">
+        <f>_xlfn.T.INV.2T(0.05,K21)</f>
+        <v>2.2009851600916384</v>
+      </c>
+      <c r="L26" s="10"/>
+      <c r="M26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="L28">
+        <f>_xlfn.T.INV.2T(0.05,M20/M21)</f>
+        <v>2.2281388519862744</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="G29" t="s">
+        <v>97</v>
+      </c>
+      <c r="I29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" t="s">
+        <v>100</v>
+      </c>
+      <c r="G30" t="s">
+        <v>101</v>
+      </c>
+      <c r="H30" t="s">
+        <v>102</v>
+      </c>
+      <c r="I30" t="s">
+        <v>103</v>
+      </c>
+      <c r="J30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="19" thickBot="1">
+      <c r="B31" t="s">
+        <v>105</v>
+      </c>
+      <c r="H31" s="7">
+        <v>24.7</v>
+      </c>
+      <c r="I31" s="7">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="B32" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H32" s="7">
+        <v>46.1</v>
+      </c>
+      <c r="I32" s="7">
+        <v>14.1</v>
+      </c>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="B33" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" t="s">
+        <v>110</v>
+      </c>
+      <c r="H33" s="7">
+        <v>18.5</v>
+      </c>
+      <c r="I33" s="7">
+        <v>7.6</v>
+      </c>
+      <c r="J33" t="s">
+        <v>67</v>
+      </c>
+      <c r="K33">
+        <v>25.736363636363635</v>
+      </c>
+      <c r="L33">
+        <v>11.899999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13">
+      <c r="B34" t="s">
+        <v>111</v>
+      </c>
+      <c r="H34" s="7">
+        <v>29.5</v>
+      </c>
+      <c r="I34" s="7">
+        <v>9.5</v>
+      </c>
+      <c r="J34" t="s">
+        <v>68</v>
+      </c>
+      <c r="K34">
+        <v>69.03254545454547</v>
+      </c>
+      <c r="L34">
+        <v>12.460000000000104</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="B35" t="s">
+        <v>57</v>
+      </c>
+      <c r="H35" s="7">
+        <v>26.3</v>
+      </c>
+      <c r="I35" s="7">
+        <v>19.7</v>
+      </c>
+      <c r="J35" t="s">
+        <v>71</v>
+      </c>
+      <c r="K35">
+        <v>11</v>
+      </c>
+      <c r="L35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="B36" t="s">
+        <v>112</v>
+      </c>
+      <c r="H36" s="7">
+        <v>33.9</v>
+      </c>
+      <c r="I36" s="7">
+        <v>10.6</v>
+      </c>
+      <c r="J36" t="s">
+        <v>113</v>
+      </c>
+      <c r="K36">
+        <v>0.25371453001499245</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="B37" t="s">
+        <v>114</v>
+      </c>
+      <c r="H37" s="7">
+        <v>23.1</v>
+      </c>
+      <c r="I37" s="7">
+        <v>9.1</v>
+      </c>
+      <c r="J37" t="s">
+        <v>89</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="B38" t="s">
+        <v>115</v>
+      </c>
+      <c r="H38" s="7">
+        <v>20.7</v>
+      </c>
+      <c r="I38" s="7">
+        <v>11.3</v>
+      </c>
+      <c r="J38" t="s">
+        <v>74</v>
+      </c>
+      <c r="K38">
+        <v>10</v>
+      </c>
+      <c r="M38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="H39" s="7">
+        <v>18</v>
+      </c>
+      <c r="I39" s="7">
+        <v>13.3</v>
+      </c>
+      <c r="J39" t="s">
+        <v>91</v>
+      </c>
+      <c r="K39">
+        <v>5.622724632312992</v>
+      </c>
+      <c r="M39" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13">
+      <c r="C40" t="s">
+        <v>117</v>
+      </c>
+      <c r="H40" s="7">
+        <v>19.3</v>
+      </c>
+      <c r="I40" s="7">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="J40" t="s">
+        <v>92</v>
+      </c>
+      <c r="K40">
+        <v>1.1031198475000419E-4</v>
+      </c>
+      <c r="M40" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13">
+      <c r="C41" t="s">
+        <v>119</v>
+      </c>
+      <c r="H41" s="7">
+        <v>23</v>
+      </c>
+      <c r="I41" s="7">
+        <v>15</v>
+      </c>
+      <c r="J41" t="s">
+        <v>93</v>
+      </c>
+      <c r="K41">
+        <v>1.812461122811676</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13">
+      <c r="C42" t="s">
+        <v>120</v>
+      </c>
+      <c r="J42" t="s">
+        <v>94</v>
+      </c>
+      <c r="K42">
+        <v>2.2062396950000838E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" ht="19" thickBot="1">
+      <c r="C43" t="s">
+        <v>121</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="K43" s="6">
+        <v>2.2281388519862744</v>
+      </c>
+      <c r="L43" s="6"/>
+    </row>
+    <row r="44" spans="2:13">
+      <c r="C44" t="s">
+        <v>122</v>
+      </c>
+      <c r="F44" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="F45" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>